--- a/Data/Results/RQ1/facade.xlsx
+++ b/Data/Results/RQ1/facade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022ASE\data\Results\RQ1 Interface-level Dependencies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022ASE\data\Data\Results\RQ1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888A1A3A-9F83-4E43-9B01-F811DDB2FECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E079E877-E875-40BF-BE29-A316CA529F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="19710" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>version</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>facade_n2e</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustrialX-S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustrialX-R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGE(close)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -175,10 +187,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -190,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,6 +233,9 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -494,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,11 +623,11 @@
         <v>3604</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H14" si="1">D3/B3</f>
+        <f t="shared" ref="H3:H16" si="1">D3/B3</f>
         <v>2.2374856733264315E-3</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I14" si="2">E3/C3</f>
+        <f t="shared" ref="I3:I16" si="2">E3/C3</f>
         <v>4.1195825982143289E-3</v>
       </c>
       <c r="J3" s="6"/>
@@ -972,12 +996,66 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4382615</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1489058</v>
+      </c>
+      <c r="D15" s="6">
+        <v>185274</v>
+      </c>
+      <c r="E15" s="8">
+        <v>111283</v>
+      </c>
+      <c r="F15" s="8">
+        <v>151532</v>
+      </c>
+      <c r="G15" s="6">
+        <v>37149</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2274760616663798E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4733825008831092E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3577499</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1201346</v>
+      </c>
+      <c r="D16" s="6">
+        <v>128373</v>
+      </c>
+      <c r="E16" s="8">
+        <v>71048</v>
+      </c>
+      <c r="F16" s="8">
+        <v>98672</v>
+      </c>
+      <c r="G16" s="6">
+        <v>30990</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.588344818545023E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>5.9140330928808188E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -992,8 +1070,22 @@
         <v>4.7755289973009547E-3</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="7">
+        <f>AVERAGE(H15:H16)</f>
+        <v>3.907910440105701E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <f>AVERAGE(I15:I16)</f>
+        <v>6.6937077968819647E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>